--- a/calculation for same value at all t.xlsx
+++ b/calculation for same value at all t.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/e0774070_u_nus_edu/Documents/0. phd/energy systems/problem related/pyomo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77E0E9AD-B9D8-4F25-A092-23E40AA04D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{77E0E9AD-B9D8-4F25-A092-23E40AA04D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EC693D3-AE20-4F7B-917C-97836BDA9959}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{23B8F8A5-C852-4FAA-A84C-D3C0E4625D99}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{23B8F8A5-C852-4FAA-A84C-D3C0E4625D99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="19">
   <si>
     <t>set 1</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>set 7</t>
+  </si>
+  <si>
+    <t>set 8</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D6ACCB-D8FC-456F-BA55-7374015774CA}">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -2040,6 +2043,247 @@
         <v>42.069999999999993</v>
       </c>
     </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>2</v>
+      </c>
+      <c r="J70" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0.01</v>
+      </c>
+      <c r="I71">
+        <v>0.01</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <f>SUMPRODUCT(B71:E71,H71:K71)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0.01</v>
+      </c>
+      <c r="I72">
+        <v>0.01</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <f>SUMPRODUCT(B72:E72,H72:K72)</f>
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0.01</v>
+      </c>
+      <c r="I73">
+        <v>0.01</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <f>SUMPRODUCT(B73:E73,H73:K73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0.5</v>
+      </c>
+      <c r="I74">
+        <v>0.5</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <f>SUMPRODUCT(B74:E74,H74:K74)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <f>SUMPRODUCT(B75:E75,H75:K75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="H76">
+        <v>0.01</v>
+      </c>
+      <c r="I76">
+        <v>0.01</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1.5</v>
+      </c>
+      <c r="M76">
+        <f>SUMPRODUCT(B76:E76,H76:K76)</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <f>SUM(M71:M76)+12</f>
+        <v>18.619999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
